--- a/data/AAII_History.xlsx
+++ b/data/AAII_History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\bamhi-web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8652060-1BEF-4849-B351-C4547AD60776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F106FF-D5C6-493D-BFE8-F563AE4628F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1346" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
